--- a/teaching/traditional_assets/database/data/netherlands/netherlands_green_renewable_energy.xlsx
+++ b/teaching/traditional_assets/database/data/netherlands/netherlands_green_renewable_energy.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-0.263</v>
+        <v>-0.188</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,73 +615,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.059</v>
+        <v>0.043</v>
       </c>
       <c r="V2">
-        <v>0.007652399481193255</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="W2">
-        <v>0.9359430604982206</v>
+        <v>0.3202725724020443</v>
       </c>
       <c r="X2">
-        <v>0.05157517447977025</v>
+        <v>0.04205768685451744</v>
       </c>
       <c r="Y2">
-        <v>0.8843678860184504</v>
+        <v>0.2782148855475269</v>
       </c>
       <c r="Z2">
         <v>-0</v>
       </c>
       <c r="AA2">
-        <v>0.2942137369072977</v>
+        <v>7.782990560619196</v>
       </c>
       <c r="AB2">
-        <v>0.04983603172842493</v>
+        <v>0.04203721426692397</v>
       </c>
       <c r="AC2">
-        <v>0.2443777051788728</v>
+        <v>7.740953346352272</v>
       </c>
       <c r="AD2">
-        <v>0.619</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.009457568096346538</v>
+        <v>0.007654100618233418</v>
       </c>
       <c r="AF2">
-        <v>0.6284575680963466</v>
+        <v>0.007654100618233418</v>
       </c>
       <c r="AG2">
-        <v>0.5694575680963465</v>
+        <v>-0.03534589938176658</v>
       </c>
       <c r="AH2">
-        <v>0.07536856342603206</v>
+        <v>0.001045977373757904</v>
       </c>
       <c r="AI2">
-        <v>-138.3526669031368</v>
+        <v>0.04592806651525017</v>
       </c>
       <c r="AJ2">
-        <v>0.06877957443621262</v>
+        <v>-0.004858773887099693</v>
       </c>
       <c r="AK2">
-        <v>-8.961847241852329</v>
+        <v>-0.2858449433140323</v>
       </c>
       <c r="AL2">
-        <v>0.032</v>
+        <v>0.005</v>
       </c>
       <c r="AM2">
-        <v>0.032</v>
+        <v>0.005</v>
       </c>
       <c r="AN2">
-        <v>123.8</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-2.59375</v>
+        <v>-52.4</v>
       </c>
       <c r="AP2">
-        <v>113.8915136192693</v>
+        <v>-8.836474845441645</v>
       </c>
       <c r="AQ2">
-        <v>-2.59375</v>
+        <v>-52.4</v>
       </c>
     </row>
     <row r="3">
@@ -692,7 +692,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New Sources Energy NV (ENXTAM:NSE)</t>
+          <t>New Sources Energy N.V. (ENXTAM:NSE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-0.263</v>
+        <v>-0.188</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -725,73 +725,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.059</v>
+        <v>0.043</v>
       </c>
       <c r="V3">
-        <v>0.007652399481193255</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="W3">
-        <v>0.9359430604982206</v>
+        <v>0.3202725724020443</v>
       </c>
       <c r="X3">
-        <v>0.05157517447977025</v>
+        <v>0.04205768685451744</v>
       </c>
       <c r="Y3">
-        <v>0.8843678860184504</v>
+        <v>0.2782148855475269</v>
       </c>
       <c r="Z3">
         <v>-0</v>
       </c>
       <c r="AA3">
-        <v>0.2942137369072977</v>
+        <v>7.782990560619196</v>
       </c>
       <c r="AB3">
-        <v>0.04983603172842493</v>
+        <v>0.04203721426692397</v>
       </c>
       <c r="AC3">
-        <v>0.2443777051788728</v>
+        <v>7.740953346352272</v>
       </c>
       <c r="AD3">
-        <v>0.619</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.009457568096346538</v>
+        <v>0.007654100618233418</v>
       </c>
       <c r="AF3">
-        <v>0.6284575680963466</v>
+        <v>0.007654100618233418</v>
       </c>
       <c r="AG3">
-        <v>0.5694575680963465</v>
+        <v>-0.03534589938176658</v>
       </c>
       <c r="AH3">
-        <v>0.07536856342603206</v>
+        <v>0.001045977373757904</v>
       </c>
       <c r="AI3">
-        <v>-138.3526669031368</v>
+        <v>0.04592806651525017</v>
       </c>
       <c r="AJ3">
-        <v>0.06877957443621262</v>
+        <v>-0.004858773887099693</v>
       </c>
       <c r="AK3">
-        <v>-8.961847241852329</v>
+        <v>-0.2858449433140323</v>
       </c>
       <c r="AL3">
-        <v>0.032</v>
+        <v>0.005</v>
       </c>
       <c r="AM3">
-        <v>0.032</v>
+        <v>0.005</v>
       </c>
       <c r="AN3">
-        <v>123.8</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-2.59375</v>
+        <v>-52.4</v>
       </c>
       <c r="AP3">
-        <v>113.8915136192693</v>
+        <v>-8.836474845441645</v>
       </c>
       <c r="AQ3">
-        <v>-2.59375</v>
+        <v>-52.4</v>
       </c>
     </row>
   </sheetData>
